--- a/data/trans_camb/P25A_8_R2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25A_8_R2-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,25</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2,57</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3,1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>0,39</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,99</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>17,49</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>18,21</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,42</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>4,94</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>17,97</t>
+          <t>-1,73</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2,7</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,81</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3,82</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-0,15</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2,9</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 2,29</t>
+          <t>-1,17; 2,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 3,03</t>
+          <t>-0,54; 3,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,88; 26,72</t>
+          <t>0,6; 5,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 2,31</t>
+          <t>-1,34; 4,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 2,15</t>
+          <t>0,73; 5,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,88; 25,32</t>
+          <t>-1,61; 2,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 1,77</t>
+          <t>-1,67; 2,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 2,03</t>
+          <t>2,35; 7,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,45; 23,29</t>
+          <t>-4,69; 1,26</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 5,07</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-0,8; 1,97</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-0,63; 2,11</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2,06; 5,61</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-2,3; 1,75</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1,25; 4,81</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>22,16%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>41,78%</t>
+          <t>57,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>739,7%</t>
+          <t>118,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>34,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>94,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>451,93%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>120,06%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>555,9%</t>
+          <t>-19,13%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>58,48%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>15,28%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>25,32%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>120,03%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-2,08%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>73,33%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-43,44; 161,33</t>
+          <t>-42,12; 160,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-38,36; 195,31</t>
+          <t>-23,94; 252,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>298,11; 1622,48</t>
+          <t>12,65; 375,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,35; 75,72</t>
+          <t>-20,75; 122,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,21; 69,7</t>
+          <t>14,17; 241,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>248,86; 757,03</t>
+          <t>-31,2; 71,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-25,91; 69,14</t>
+          <t>-32,12; 77,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-21,77; 79,36</t>
+          <t>41,14; 232,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>342,6; 873,2</t>
+          <t>-42,43; 16,59</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>8,06; 137,16</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-20,25; 84,86</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-17,24; 81,73</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>53,69; 219,58</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-28,6; 29,91</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>26,73; 153,84</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,77</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>31,73</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,94</t>
+          <t>4,77</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,9</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,84</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,09</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,88</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3,1</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 1,74</t>
+          <t>-2,73; 1,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 2,92</t>
+          <t>-2,09; 2,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,04; 19,73</t>
+          <t>-0,07; 5,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 0,92</t>
+          <t>-4,09; 3,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 3,6</t>
+          <t>-0,64; 6,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,42; 46,24</t>
+          <t>-4,04; 0,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 0,9</t>
+          <t>-1,87; 4,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 2,36</t>
+          <t>0,68; 7,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,21; 31,25</t>
+          <t>-0,13; 10,16</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-2,11; 10,77</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,4; 0,6</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 2,99</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,81; 5,21</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-0,95; 5,3</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-0,3; 6,66</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,77%</t>
+          <t>-8,65%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>26,94%</t>
+          <t>16,64%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>364,99%</t>
+          <t>98,67%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-26,39%</t>
+          <t>-12,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>104,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>739,51%</t>
+          <t>-32,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-18,11%</t>
+          <t>16,72%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>82,47%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>624,3%</t>
+          <t>59,35%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>43,72%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-23,78%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>16,5%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>87,9%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>28,41%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>57,48%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-63,81; 130,48</t>
+          <t>-69,62; 118,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-49,87; 207,65</t>
+          <t>-55,25; 188,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,61; 1085,18</t>
+          <t>-16,8; 331,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-63,13; 33,09</t>
+          <t>-62,22; 88,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,86; 115,1</t>
+          <t>-30,66; 549,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>356,25; 1361,79</t>
+          <t>-66,3; 21,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-50,72; 39,09</t>
+          <t>-37,84; 162,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,84; 93,22</t>
+          <t>4,82; 217,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>329,22; 1142,2</t>
+          <t>-2,83; 164,5</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-21,32; 171,42</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-54,64; 23,06</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-28,96; 111,53</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>15,58; 197,83</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-13,57; 91,95</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-8,2; 158,1</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>1,84</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,24</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,04</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,41</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6,51</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>4,22</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,55</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3,88</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>4,14</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 3,02</t>
+          <t>-5,15; 2,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 7,35</t>
+          <t>-2,27; 8,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-3,17; 7,48</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,45; 3,93</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 11,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-5,52; 3,51</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-0,31; 10,96</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,89; 13,87</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-3,29; 2,2</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>0,5; 7,56</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,81; 2,03</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 7,72</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 8,51</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-6,77%</t>
+          <t>-15,08%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>95,52%</t>
+          <t>82,74%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>64,38%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-5,91%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>150,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-15,51%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>125,73%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>151,32%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-6,42%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>129,21%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-15,48%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>108,6%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>115,83%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-70,5; 883,2</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-96,67; 1055,8</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-68,34; 895,55</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-73,21; 240,06</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-3,21; 578,99</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-79,23; 210,18</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-14,35; 529,65</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-5,51; 671,19</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-65,29; 124,75</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-3,42; 395,34</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-70,55; 111,58</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-9,82; 340,34</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-7,12; 413,4</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,06</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>21,51</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>18,72</t>
+          <t>-0,33</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,99</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,15</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>3,57</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2,95</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 1,33</t>
+          <t>-1,35; 1,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 2,43</t>
+          <t>-0,46; 2,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,83; 21,49</t>
+          <t>0,84; 4,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 1,26</t>
+          <t>-1,02; 3,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 2,71</t>
+          <t>1,01; 4,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,63; 28,33</t>
+          <t>-1,84; 1,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 0,85</t>
+          <t>-0,54; 3,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 2,12</t>
+          <t>2,54; 6,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,93; 23,93</t>
+          <t>-2,49; 1,89</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0,85; 5,04</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,28; 0,68</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,13; 2,08</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>2,26; 4,92</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-1,25; 1,93</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1,53; 4,43</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>42,68%</t>
+          <t>43,56%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>627,45%</t>
+          <t>102,5%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-5,83%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>24,21%</t>
+          <t>96,4%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>520,92%</t>
+          <t>-8,98%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-1,69%</t>
+          <t>25,78%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>108,77%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>569,95%</t>
+          <t>-3,77%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>53,93%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-4,55%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>32,11%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>106,36%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>4,34%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>68,96%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-38,09; 76,3</t>
+          <t>-40,78; 72,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-21,09; 137,2</t>
+          <t>-16,87; 144,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>330,53; 1162,01</t>
+          <t>19,65; 229,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-33,16; 38,53</t>
+          <t>-18,52; 80,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 79,05</t>
+          <t>23,32; 214,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>335,99; 798,46</t>
+          <t>-37,32; 30,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-25,86; 31,55</t>
+          <t>-11,66; 86,7</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 79,93</t>
+          <t>45,55; 186,76</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>405,02; 813,67</t>
+          <t>-25,89; 25,05</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>11,8; 106,91</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-31,6; 23,62</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-4,54; 69,69</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>55,68; 171,68</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-16,13; 31,12</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>29,1; 117,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
